--- a/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547683480776129</v>
+        <v>2.547683480776016</v>
       </c>
       <c r="C2">
-        <v>0.5894118871882199</v>
+        <v>0.5894118871883052</v>
       </c>
       <c r="D2">
-        <v>0.08814574633163375</v>
+        <v>0.08814574633198191</v>
       </c>
       <c r="E2">
-        <v>0.0154714290236253</v>
+        <v>0.01547142902369902</v>
       </c>
       <c r="F2">
-        <v>6.853028714701281</v>
+        <v>6.85302871470131</v>
       </c>
       <c r="G2">
-        <v>0.0008181738097013988</v>
+        <v>0.0008181738097484891</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1456321625047678</v>
+        <v>0.1456321625047465</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5331851891456623</v>
+        <v>0.5331851891456409</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201675675719798</v>
+        <v>2.201675675719741</v>
       </c>
       <c r="C3">
-        <v>0.5050599847656088</v>
+        <v>0.5050599847657509</v>
       </c>
       <c r="D3">
-        <v>0.07555688829596363</v>
+        <v>0.075556888295786</v>
       </c>
       <c r="E3">
-        <v>0.01573051120170721</v>
+        <v>0.01573051120175606</v>
       </c>
       <c r="F3">
-        <v>6.136659261331403</v>
+        <v>6.136659261331431</v>
       </c>
       <c r="G3">
-        <v>0.0008298469072959595</v>
+        <v>0.0008298469072390083</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1345438433342281</v>
+        <v>0.1345438433342636</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4645848587985881</v>
+        <v>0.4645848587985952</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995451429073228</v>
+        <v>1.995451429073057</v>
       </c>
       <c r="C4">
-        <v>0.4549049906549101</v>
+        <v>0.4549049906547111</v>
       </c>
       <c r="D4">
-        <v>0.06802613490570053</v>
+        <v>0.06802613490546605</v>
       </c>
       <c r="E4">
-        <v>0.01591559869834569</v>
+        <v>0.0159155986983297</v>
       </c>
       <c r="F4">
         <v>5.709007093523155</v>
       </c>
       <c r="G4">
-        <v>0.0008371588497719697</v>
+        <v>0.0008371588498583893</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1279621800679962</v>
+        <v>0.1279621800680104</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4238797104113416</v>
+        <v>0.4238797104113345</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912771441925202</v>
+        <v>1.912771441925031</v>
       </c>
       <c r="C5">
-        <v>0.4348205225760466</v>
+        <v>0.4348205225757908</v>
       </c>
       <c r="D5">
-        <v>0.06499894822378138</v>
+        <v>0.06499894822359664</v>
       </c>
       <c r="E5">
-        <v>0.01599744601105613</v>
+        <v>0.01599744601104636</v>
       </c>
       <c r="F5">
-        <v>5.537380622833751</v>
+        <v>5.537380622833723</v>
       </c>
       <c r="G5">
-        <v>0.0008401784083806403</v>
+        <v>0.0008401784084734795</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1253301360842798</v>
+        <v>0.1253301360844574</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4076043640946878</v>
+        <v>0.4076043640946736</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.899118882010782</v>
+        <v>1.899118882010555</v>
       </c>
       <c r="C6">
-        <v>0.4315053377094955</v>
+        <v>0.4315053377096376</v>
       </c>
       <c r="D6">
-        <v>0.06449857475919885</v>
+        <v>0.06449857475924858</v>
       </c>
       <c r="E6">
-        <v>0.01601142143931433</v>
+        <v>0.01601142143929479</v>
       </c>
       <c r="F6">
-        <v>5.509030421617666</v>
+        <v>5.509030421617581</v>
       </c>
       <c r="G6">
-        <v>0.0008406823087863818</v>
+        <v>0.0008406823087379293</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.124895920052694</v>
+        <v>0.1248959200528148</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.404919534186611</v>
+        <v>0.4049195341865826</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>1.994331136710457</v>
       </c>
       <c r="C7">
-        <v>0.4546327621557964</v>
+        <v>0.4546327621555122</v>
       </c>
       <c r="D7">
-        <v>0.06798515093194624</v>
+        <v>0.06798515093199597</v>
       </c>
       <c r="E7">
-        <v>0.01591667665965968</v>
+        <v>0.01591667665962593</v>
       </c>
       <c r="F7">
-        <v>5.706682294936769</v>
+        <v>5.706682294936854</v>
       </c>
       <c r="G7">
-        <v>0.0008371994068456316</v>
+        <v>0.000837199406697898</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1279264894513616</v>
+        <v>0.1279264894513403</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4236590049649038</v>
+        <v>0.4236590049648967</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.426955283860764</v>
+        <v>2.426955283861048</v>
       </c>
       <c r="C8">
-        <v>0.5599506158594068</v>
+        <v>0.5599506158597478</v>
       </c>
       <c r="D8">
-        <v>0.08375851675990731</v>
+        <v>0.08375851675980073</v>
       </c>
       <c r="E8">
-        <v>0.01555528651082749</v>
+        <v>0.01555528651085858</v>
       </c>
       <c r="F8">
-        <v>6.603222688541905</v>
+        <v>6.60322268854182</v>
       </c>
       <c r="G8">
-        <v>0.0008221709180489941</v>
+        <v>0.0008221709180632201</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1417574531823362</v>
+        <v>0.1417574531823931</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335534169291975</v>
+        <v>3.335534169291691</v>
       </c>
       <c r="C9">
         <v>0.7824880133161969</v>
       </c>
       <c r="D9">
-        <v>0.1167000344917284</v>
+        <v>0.1167000344914584</v>
       </c>
       <c r="E9">
-        <v>0.01505919302034631</v>
+        <v>0.01505919302040759</v>
       </c>
       <c r="F9">
-        <v>8.480033098156241</v>
+        <v>8.480033098156298</v>
       </c>
       <c r="G9">
-        <v>0.000793665901156008</v>
+        <v>0.0007936659013668182</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6904843926424533</v>
+        <v>0.6904843926424675</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.057568489840776</v>
+        <v>4.057568489840719</v>
       </c>
       <c r="C10">
-        <v>0.960749927133179</v>
+        <v>0.9607499271331221</v>
       </c>
       <c r="D10">
-        <v>0.1428357272765339</v>
+        <v>0.1428357272765055</v>
       </c>
       <c r="E10">
-        <v>0.01483463489342451</v>
+        <v>0.01483463489341919</v>
       </c>
       <c r="F10">
-        <v>9.967092424752423</v>
+        <v>9.967092424752593</v>
       </c>
       <c r="G10">
-        <v>0.0007730154279518348</v>
+        <v>0.0007730154280640518</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1944521402131514</v>
+        <v>0.1944521402131159</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8356552403514428</v>
+        <v>0.835655240351457</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.402833106294338</v>
+        <v>4.402833106294167</v>
       </c>
       <c r="C11">
-        <v>1.046458808182564</v>
+        <v>1.046458808183417</v>
       </c>
       <c r="D11">
-        <v>0.1553416830308407</v>
+        <v>0.1553416830307128</v>
       </c>
       <c r="E11">
-        <v>0.01476574362796867</v>
+        <v>0.01476574362803706</v>
       </c>
       <c r="F11">
-        <v>10.67697149773102</v>
+        <v>10.67697149773124</v>
       </c>
       <c r="G11">
-        <v>0.000763602682224061</v>
+        <v>0.0007636026823137138</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2056796529199687</v>
+        <v>0.2056796529200255</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9053473291286736</v>
+        <v>0.9053473291287446</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.536506628855591</v>
+        <v>4.536506628855648</v>
       </c>
       <c r="C12">
-        <v>1.079725486324463</v>
+        <v>1.07972548632452</v>
       </c>
       <c r="D12">
-        <v>0.160186334664985</v>
+        <v>0.1601863346648429</v>
       </c>
       <c r="E12">
-        <v>0.01474473714529623</v>
+        <v>0.01474473714527402</v>
       </c>
       <c r="F12">
-        <v>10.95160656374304</v>
+        <v>10.95160656374298</v>
       </c>
       <c r="G12">
-        <v>0.0007600272225875968</v>
+        <v>0.0007600272224799345</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2100307486346935</v>
+        <v>0.2100307486346296</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9323718585392982</v>
+        <v>0.9323718585392697</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.507578092216647</v>
+        <v>4.507578092216534</v>
       </c>
       <c r="C13">
-        <v>1.07252219551998</v>
+        <v>1.072522195519895</v>
       </c>
       <c r="D13">
-        <v>0.1591377425028924</v>
+        <v>0.1591377425030061</v>
       </c>
       <c r="E13">
-        <v>0.01474902991776084</v>
+        <v>0.01474902991776439</v>
       </c>
       <c r="F13">
-        <v>10.892181868992</v>
+        <v>10.89218186899222</v>
       </c>
       <c r="G13">
-        <v>0.0007607979045205748</v>
+        <v>0.0007607979044986179</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2090889376654914</v>
+        <v>0.2090889376655838</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9265215001496543</v>
+        <v>0.9265215001496756</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.413768498130764</v>
+        <v>4.413768498130935</v>
       </c>
       <c r="C14">
-        <v>1.049178483467131</v>
+        <v>1.049178483467074</v>
       </c>
       <c r="D14">
-        <v>0.1557379423370833</v>
+        <v>0.1557379423370406</v>
       </c>
       <c r="E14">
-        <v>0.01476391166675306</v>
+        <v>0.01476391166673352</v>
       </c>
       <c r="F14">
-        <v>10.69944274157962</v>
+        <v>10.69944274157956</v>
       </c>
       <c r="G14">
-        <v>0.000763308802543449</v>
+        <v>0.000763308802415084</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2060355194859227</v>
+        <v>0.2060355194858232</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9075572558484453</v>
+        <v>0.9075572558483955</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.356705841050029</v>
+        <v>4.356705841049859</v>
       </c>
       <c r="C15">
-        <v>1.034990217219104</v>
+        <v>1.034990217218223</v>
       </c>
       <c r="D15">
-        <v>0.1536703193222877</v>
+        <v>0.1536703193223019</v>
       </c>
       <c r="E15">
-        <v>0.01477369869894929</v>
+        <v>0.01477369869890488</v>
       </c>
       <c r="F15">
-        <v>10.58217578147821</v>
+        <v>10.58217578147816</v>
       </c>
       <c r="G15">
-        <v>0.0007648450839425025</v>
+        <v>0.0007648450839481684</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2041787170991611</v>
+        <v>0.2041787170991114</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8960272123912389</v>
+        <v>0.8960272123912816</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.035384407374295</v>
+        <v>4.035384407374465</v>
       </c>
       <c r="C16">
-        <v>0.9552534276041058</v>
+        <v>0.955253427604049</v>
       </c>
       <c r="D16">
-        <v>0.1420324857040214</v>
+        <v>0.1420324857042203</v>
       </c>
       <c r="E16">
-        <v>0.01483983064550287</v>
+        <v>0.01483983064549044</v>
       </c>
       <c r="F16">
-        <v>9.921454881032446</v>
+        <v>9.921454881032474</v>
       </c>
       <c r="G16">
-        <v>0.0007736295166682846</v>
+        <v>0.0007736295166624387</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1937313390815021</v>
+        <v>0.1937313390816584</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8311829939687172</v>
+        <v>0.8311829939686746</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.842903334650373</v>
+        <v>3.842903334650657</v>
       </c>
       <c r="C17">
-        <v>0.9076153863704235</v>
+        <v>0.907615386370793</v>
       </c>
       <c r="D17">
-        <v>0.1350642241111615</v>
+        <v>0.1350642241113604</v>
       </c>
       <c r="E17">
-        <v>0.01488911478723942</v>
+        <v>0.01488911478739574</v>
       </c>
       <c r="F17">
-        <v>9.52534479906592</v>
+        <v>9.525344799065977</v>
       </c>
       <c r="G17">
-        <v>0.0007790082118281555</v>
+        <v>0.000779008211935866</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1874806310635506</v>
+        <v>0.1874806310634511</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.792409497157557</v>
+        <v>0.7924094971574931</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733739458833952</v>
+        <v>3.733739458834009</v>
       </c>
       <c r="C18">
-        <v>0.8806394711923815</v>
+        <v>0.8806394711918131</v>
       </c>
       <c r="D18">
-        <v>0.1311128969816338</v>
+        <v>0.1311128969818185</v>
       </c>
       <c r="E18">
-        <v>0.01492057164804717</v>
+        <v>0.01492057164808447</v>
       </c>
       <c r="F18">
-        <v>9.30058651295829</v>
+        <v>9.300586512958375</v>
       </c>
       <c r="G18">
-        <v>0.0007821007143393896</v>
+        <v>0.0007821007144438118</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.183938442155501</v>
+        <v>0.1839384421554158</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7704442721401819</v>
+        <v>0.7704442721401392</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.697029957675852</v>
+        <v>3.697029957676079</v>
       </c>
       <c r="C19">
-        <v>0.8715747456650433</v>
+        <v>0.8715747456654981</v>
       </c>
       <c r="D19">
-        <v>0.1297842169403225</v>
+        <v>0.1297842169405214</v>
       </c>
       <c r="E19">
-        <v>0.01493174832522381</v>
+        <v>0.01493174832522026</v>
       </c>
       <c r="F19">
         <v>9.224987238461722</v>
       </c>
       <c r="G19">
-        <v>0.000783147809480772</v>
+        <v>0.0007831478094803291</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1827477719177395</v>
+        <v>0.1827477719177324</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7630620109570287</v>
+        <v>0.7630620109570572</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.86322985520718</v>
+        <v>3.863229855207237</v>
       </c>
       <c r="C20">
-        <v>0.912641661451346</v>
+        <v>0.9126416614514028</v>
       </c>
       <c r="D20">
-        <v>0.135800011840189</v>
+        <v>0.1358000118401748</v>
       </c>
       <c r="E20">
-        <v>0.01488354455560437</v>
+        <v>0.01488354455548091</v>
       </c>
       <c r="F20">
         <v>9.567186522397805</v>
       </c>
       <c r="G20">
-        <v>0.0007784358185529281</v>
+        <v>0.0007784358185503939</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1881404280737087</v>
+        <v>0.1881404280737868</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.441238554448944</v>
+        <v>4.441238554448773</v>
       </c>
       <c r="C21">
-        <v>1.056011777756879</v>
+        <v>1.056011777756851</v>
       </c>
       <c r="D21">
-        <v>0.1567334088275061</v>
+        <v>0.156733408827705</v>
       </c>
       <c r="E21">
-        <v>0.01475939997528286</v>
+        <v>0.01475939997531217</v>
       </c>
       <c r="F21">
-        <v>10.75588788615812</v>
+        <v>10.75588788615823</v>
       </c>
       <c r="G21">
-        <v>0.0007625716654918174</v>
+        <v>0.0007625716655882478</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2069295336939447</v>
+        <v>0.2069295336941224</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9131093452089871</v>
+        <v>0.9131093452089587</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.836392212585338</v>
+        <v>4.836392212585167</v>
       </c>
       <c r="C22">
-        <v>1.154528833012193</v>
+        <v>1.154528833012023</v>
       </c>
       <c r="D22">
-        <v>0.1710619448484891</v>
+        <v>0.171061944848816</v>
       </c>
       <c r="E22">
-        <v>0.01470806328521945</v>
+        <v>0.01470806328514573</v>
       </c>
       <c r="F22">
-        <v>11.56731632543438</v>
+        <v>11.56731632543466</v>
       </c>
       <c r="G22">
-        <v>0.0007521339279131304</v>
+        <v>0.0007521339279928445</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2197993826207778</v>
+        <v>0.2197993826207565</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.9930798628701822</v>
+        <v>0.9930798628701183</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>4.623702430905212</v>
       </c>
       <c r="C23">
-        <v>1.101450883925963</v>
+        <v>1.10145088392639</v>
       </c>
       <c r="D23">
-        <v>0.1633475153695798</v>
+        <v>0.1633475153691393</v>
       </c>
       <c r="E23">
-        <v>0.01473262193685709</v>
+        <v>0.01473262193686242</v>
       </c>
       <c r="F23">
         <v>11.13069122595778</v>
       </c>
       <c r="G23">
-        <v>0.0007577143250634376</v>
+        <v>0.0007577143250657481</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2128701175523062</v>
+        <v>0.212870117552221</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9500122231060075</v>
+        <v>0.9500122231060217</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>3.854035612618532</v>
       </c>
       <c r="C24">
-        <v>0.9103680103659144</v>
+        <v>0.9103680103659713</v>
       </c>
       <c r="D24">
-        <v>0.1354671929236986</v>
+        <v>0.1354671929239117</v>
       </c>
       <c r="E24">
-        <v>0.01488605315225833</v>
+        <v>0.01488605315232405</v>
       </c>
       <c r="F24">
-        <v>9.548260700192117</v>
+        <v>9.548260700192031</v>
       </c>
       <c r="G24">
-        <v>0.0007786945963478048</v>
+        <v>0.0007786945963502003</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1878419748710272</v>
+        <v>0.1878419748711835</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7946504874568845</v>
+        <v>0.7946504874568916</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081628970938539</v>
+        <v>3.081628970938766</v>
       </c>
       <c r="C25">
-        <v>0.7201055238297727</v>
+        <v>0.7201055238298011</v>
       </c>
       <c r="D25">
-        <v>0.1075068894534468</v>
+        <v>0.1075068894535178</v>
       </c>
       <c r="E25">
-        <v>0.01516967749212927</v>
+        <v>0.01516967749207776</v>
       </c>
       <c r="F25">
-        <v>7.956236792058064</v>
+        <v>7.956236792057979</v>
       </c>
       <c r="G25">
-        <v>0.0008013017514848368</v>
+        <v>0.0008013017517164143</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1628301657761284</v>
+        <v>0.162830165776171</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6396477346311897</v>
+        <v>0.6396477346312253</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.547683480776016</v>
+        <v>2.493409828010272</v>
       </c>
       <c r="C2">
-        <v>0.5894118871883052</v>
+        <v>0.7536557100540335</v>
       </c>
       <c r="D2">
-        <v>0.08814574633198191</v>
+        <v>0.08763283434267777</v>
       </c>
       <c r="E2">
-        <v>0.01547142902369902</v>
+        <v>0.0864271816562372</v>
       </c>
       <c r="F2">
-        <v>6.85302871470131</v>
+        <v>1.086199116189633</v>
       </c>
       <c r="G2">
-        <v>0.0008181738097484891</v>
+        <v>0.8040002996999647</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0001410725946924263</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1456321625047465</v>
+        <v>0.5400667530473982</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3841421371044333</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1083656391924883</v>
       </c>
       <c r="M2">
-        <v>0.5331851891456409</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.7134094879044639</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201675675719741</v>
+        <v>2.168133033197421</v>
       </c>
       <c r="C3">
-        <v>0.5050599847657509</v>
+        <v>0.6554115834476022</v>
       </c>
       <c r="D3">
-        <v>0.075556888295786</v>
+        <v>0.07883532911176871</v>
       </c>
       <c r="E3">
-        <v>0.01573051120175606</v>
+        <v>0.07864689718186213</v>
       </c>
       <c r="F3">
-        <v>6.136659261331431</v>
+        <v>1.017709314568151</v>
       </c>
       <c r="G3">
-        <v>0.0008298469072390083</v>
+        <v>0.7465150715435698</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0009562801693117073</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1345438433342636</v>
+        <v>0.5199610468061451</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3806861979702951</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0992890240811839</v>
       </c>
       <c r="M3">
-        <v>0.4645848587985952</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.6215625687783088</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.995451429073057</v>
+        <v>1.968722972156229</v>
       </c>
       <c r="C4">
-        <v>0.4549049906547111</v>
+        <v>0.5951985187501805</v>
       </c>
       <c r="D4">
-        <v>0.06802613490546605</v>
+        <v>0.07344509655236209</v>
       </c>
       <c r="E4">
-        <v>0.0159155986983297</v>
+        <v>0.07387685393112342</v>
       </c>
       <c r="F4">
-        <v>5.709007093523155</v>
+        <v>0.9771987978193977</v>
       </c>
       <c r="G4">
-        <v>0.0008371588498583893</v>
+        <v>0.7127525999690505</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.001847509003362724</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1279621800680104</v>
+        <v>0.5085003096955774</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3794835878690428</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09371565134623339</v>
       </c>
       <c r="M4">
-        <v>0.4238797104113345</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5652781316137876</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.912771441925031</v>
+        <v>1.887509622392031</v>
       </c>
       <c r="C5">
-        <v>0.4348205225757908</v>
+        <v>0.5706787411182006</v>
       </c>
       <c r="D5">
-        <v>0.06499894822359664</v>
+        <v>0.07124988437588797</v>
       </c>
       <c r="E5">
-        <v>0.01599744601104636</v>
+        <v>0.0719329594270377</v>
       </c>
       <c r="F5">
-        <v>5.537380622833723</v>
+        <v>0.9610524656959853</v>
       </c>
       <c r="G5">
-        <v>0.0008401784084734795</v>
+        <v>0.6993524419328452</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002303103966670772</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1253301360844574</v>
+        <v>0.5040397681352715</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3792122602878614</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0914419535640647</v>
       </c>
       <c r="M5">
-        <v>0.4076043640946736</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.5423605863184804</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.899118882010555</v>
+        <v>1.874026250400021</v>
       </c>
       <c r="C6">
-        <v>0.4315053377096376</v>
+        <v>0.5666080322701816</v>
       </c>
       <c r="D6">
-        <v>0.06449857475924858</v>
+        <v>0.07088540976758395</v>
       </c>
       <c r="E6">
-        <v>0.01601142143929479</v>
+        <v>0.07161012139004441</v>
       </c>
       <c r="F6">
-        <v>5.509030421617581</v>
+        <v>0.9583925150440393</v>
       </c>
       <c r="G6">
-        <v>0.0008406823087379293</v>
+        <v>0.6971482254571271</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002384171489087983</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1248959200528148</v>
+        <v>0.5033114155980485</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3791800665680789</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09106418788874393</v>
       </c>
       <c r="M6">
-        <v>0.4049195341865826</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.538556034823344</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.994331136710457</v>
+        <v>1.967627545351036</v>
       </c>
       <c r="C7">
-        <v>0.4546327621555122</v>
+        <v>0.5948677780972389</v>
       </c>
       <c r="D7">
-        <v>0.06798515093199597</v>
+        <v>0.07341548763579198</v>
       </c>
       <c r="E7">
-        <v>0.01591667665962593</v>
+        <v>0.07385064051110746</v>
       </c>
       <c r="F7">
-        <v>5.706682294936854</v>
+        <v>0.9769796100682555</v>
       </c>
       <c r="G7">
-        <v>0.000837199406697898</v>
+        <v>0.7125704650065785</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001853286642726881</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1279264894513403</v>
+        <v>0.5084393199002903</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3794790589310608</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09368500072068997</v>
       </c>
       <c r="M7">
-        <v>0.4236590049648967</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5649689926405799</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.426955283861048</v>
+        <v>2.38117076140702</v>
       </c>
       <c r="C8">
-        <v>0.5599506158597478</v>
+        <v>0.7197522501904245</v>
       </c>
       <c r="D8">
-        <v>0.08375851675980073</v>
+        <v>0.08459611692693159</v>
       </c>
       <c r="E8">
-        <v>0.01555528651085858</v>
+        <v>0.08374192615491438</v>
       </c>
       <c r="F8">
-        <v>6.60322268854182</v>
+        <v>1.062247695812587</v>
       </c>
       <c r="G8">
-        <v>0.0008221709180632201</v>
+        <v>0.7838441580912558</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003374715048272137</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1417574531823931</v>
+        <v>0.5329430139695717</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3827520368728479</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1052345808933275</v>
       </c>
       <c r="M8">
-        <v>0.5092100634726791</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.681712336734229</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.335534169291691</v>
+        <v>3.196114602894681</v>
       </c>
       <c r="C9">
-        <v>0.7824880133161969</v>
+        <v>0.966011339348114</v>
       </c>
       <c r="D9">
-        <v>0.1167000344914584</v>
+        <v>0.1066877271187678</v>
       </c>
       <c r="E9">
-        <v>0.01505919302040759</v>
+        <v>0.1032840418673473</v>
       </c>
       <c r="F9">
-        <v>8.480033098156298</v>
+        <v>1.242939756267262</v>
       </c>
       <c r="G9">
-        <v>0.0007936659013668182</v>
+        <v>0.9370944262355323</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0007423152509251629</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1710372942041261</v>
+        <v>0.5886135949640874</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3970588196430356</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1279976045612408</v>
       </c>
       <c r="M9">
-        <v>0.6904843926424675</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.9119559446625445</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.057568489840719</v>
+        <v>3.806129519122408</v>
       </c>
       <c r="C10">
-        <v>0.9607499271331221</v>
+        <v>1.145951712992144</v>
       </c>
       <c r="D10">
-        <v>0.1428357272765055</v>
+        <v>0.1208007549520786</v>
       </c>
       <c r="E10">
-        <v>0.01483463489341919</v>
+        <v>0.1134600970257438</v>
       </c>
       <c r="F10">
-        <v>9.967092424752593</v>
+        <v>1.358368334396658</v>
       </c>
       <c r="G10">
-        <v>0.0007730154280640518</v>
+        <v>1.038002286587954</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.003517545799343935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1944521402131159</v>
+        <v>0.6240872532634967</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4033588519338878</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1384668599379921</v>
       </c>
       <c r="M10">
-        <v>0.835655240351457</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.07034027080131</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.402833106294167</v>
+        <v>4.143808701695434</v>
       </c>
       <c r="C11">
-        <v>1.046458808183417</v>
+        <v>1.205673419438483</v>
       </c>
       <c r="D11">
-        <v>0.1553416830307128</v>
+        <v>0.107893684232522</v>
       </c>
       <c r="E11">
-        <v>0.01476574362803706</v>
+        <v>0.08565903518156226</v>
       </c>
       <c r="F11">
-        <v>10.67697149773124</v>
+        <v>1.183297809846465</v>
       </c>
       <c r="G11">
-        <v>0.0007636026823137138</v>
+        <v>0.9028947827508063</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02235674568899526</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2056796529200255</v>
+        <v>0.5492874289493841</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3267202175673134</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1001625946430806</v>
       </c>
       <c r="M11">
-        <v>0.9053473291287446</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.036904982511722</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.536506628855648</v>
+        <v>4.302443807240422</v>
       </c>
       <c r="C12">
-        <v>1.07972548632452</v>
+        <v>1.217577645489541</v>
       </c>
       <c r="D12">
-        <v>0.1601863346648429</v>
+        <v>0.09514293810832442</v>
       </c>
       <c r="E12">
-        <v>0.01474473714527402</v>
+        <v>0.06780537051431601</v>
       </c>
       <c r="F12">
-        <v>10.95160656374298</v>
+        <v>1.020489636857448</v>
       </c>
       <c r="G12">
-        <v>0.0007600272224799345</v>
+        <v>0.7748086360798538</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0607912476653496</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2100307486346296</v>
+        <v>0.4819440344549832</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2667584156658975</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08367079248273779</v>
       </c>
       <c r="M12">
-        <v>0.9323718585392697</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.9756363684672991</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.507578092216534</v>
+        <v>4.33059743926998</v>
       </c>
       <c r="C13">
-        <v>1.072522195519895</v>
+        <v>1.193217950577662</v>
       </c>
       <c r="D13">
-        <v>0.1591377425030061</v>
+        <v>0.0818294617044657</v>
       </c>
       <c r="E13">
-        <v>0.01474902991776439</v>
+        <v>0.0565520015461054</v>
       </c>
       <c r="F13">
-        <v>10.89218186899222</v>
+        <v>0.8578736218677534</v>
       </c>
       <c r="G13">
-        <v>0.0007607979044986179</v>
+        <v>0.6446057060085764</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1158862704921688</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2090889376655838</v>
+        <v>0.4162931720094036</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2157281296273439</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08277802997009331</v>
       </c>
       <c r="M13">
-        <v>0.9265215001496756</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.8899963269280065</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.413768498130935</v>
+        <v>4.291196713562272</v>
       </c>
       <c r="C14">
-        <v>1.049178483467074</v>
+        <v>1.159881514207768</v>
       </c>
       <c r="D14">
-        <v>0.1557379423370406</v>
+        <v>0.07249951721848191</v>
       </c>
       <c r="E14">
-        <v>0.01476391166673352</v>
+        <v>0.05272447254172941</v>
       </c>
       <c r="F14">
-        <v>10.69944274157956</v>
+        <v>0.7465070582749576</v>
       </c>
       <c r="G14">
-        <v>0.000763308802415084</v>
+        <v>0.5543882503101401</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1646532810859327</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2060355194858232</v>
+        <v>0.3719661499647344</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1850824872010399</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09148014330306609</v>
       </c>
       <c r="M14">
-        <v>0.9075572558483955</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8198020128930281</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.356705841049859</v>
+        <v>4.253287897439122</v>
       </c>
       <c r="C15">
-        <v>1.034990217218223</v>
+        <v>1.144128444211958</v>
       </c>
       <c r="D15">
-        <v>0.1536703193223019</v>
+        <v>0.06998638663051082</v>
       </c>
       <c r="E15">
-        <v>0.01477369869890488</v>
+        <v>0.05219081953922733</v>
       </c>
       <c r="F15">
-        <v>10.58217578147816</v>
+        <v>0.7184167938487604</v>
       </c>
       <c r="G15">
-        <v>0.0007648450839481684</v>
+        <v>0.5311709938144844</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1769159808514473</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2041787170991114</v>
+        <v>0.3611675753065242</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1787426497588456</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09452195086488402</v>
       </c>
       <c r="M15">
-        <v>0.8960272123912816</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7976429952966697</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.035384407374465</v>
+        <v>3.981433662884228</v>
       </c>
       <c r="C16">
-        <v>0.955253427604049</v>
+        <v>1.071843901250361</v>
       </c>
       <c r="D16">
-        <v>0.1420324857042203</v>
+        <v>0.06698195760378667</v>
       </c>
       <c r="E16">
-        <v>0.01483983064549044</v>
+        <v>0.05044691204746621</v>
       </c>
       <c r="F16">
-        <v>9.921454881032474</v>
+        <v>0.7039565426414356</v>
       </c>
       <c r="G16">
-        <v>0.0007736295166624387</v>
+        <v>0.5153124166703265</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1630812172972753</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1937313390816584</v>
+        <v>0.3594856879315387</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1858222888443528</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09023621371756718</v>
       </c>
       <c r="M16">
-        <v>0.8311829939686746</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7495711704224988</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.842903334650657</v>
+        <v>3.794718640402039</v>
       </c>
       <c r="C17">
-        <v>0.907615386370793</v>
+        <v>1.034204350486618</v>
       </c>
       <c r="D17">
-        <v>0.1350642241113604</v>
+        <v>0.06946565516551573</v>
       </c>
       <c r="E17">
-        <v>0.01488911478739574</v>
+        <v>0.05040551688078532</v>
       </c>
       <c r="F17">
-        <v>9.525344799065977</v>
+        <v>0.7509191385930265</v>
       </c>
       <c r="G17">
-        <v>0.000779008211935866</v>
+        <v>0.5503439432896187</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1248112735073477</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1874806310634511</v>
+        <v>0.3814742160668914</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2072004057103776</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08077349392728728</v>
       </c>
       <c r="M17">
-        <v>0.7924094971574931</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7494650672019461</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.733739458834009</v>
+        <v>3.660223855072729</v>
       </c>
       <c r="C18">
-        <v>0.8806394711918131</v>
+        <v>1.021777547439967</v>
       </c>
       <c r="D18">
-        <v>0.1311128969818185</v>
+        <v>0.07755329065568617</v>
       </c>
       <c r="E18">
-        <v>0.01492057164808447</v>
+        <v>0.05561097102071511</v>
       </c>
       <c r="F18">
-        <v>9.300586512958375</v>
+        <v>0.8611665219987685</v>
       </c>
       <c r="G18">
-        <v>0.0007821007144438118</v>
+        <v>0.6370239472119152</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07190369452185053</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1839384421554158</v>
+        <v>0.4281077210470983</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2463290371530285</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07445013106250364</v>
       </c>
       <c r="M18">
-        <v>0.7704442721401392</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7911720232597901</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.697029957676079</v>
+        <v>3.578382811006634</v>
       </c>
       <c r="C19">
-        <v>0.8715747456654981</v>
+        <v>1.030461806219932</v>
       </c>
       <c r="D19">
-        <v>0.1297842169405214</v>
+        <v>0.09056409060544013</v>
       </c>
       <c r="E19">
-        <v>0.01493174832522026</v>
+        <v>0.07037396240417415</v>
       </c>
       <c r="F19">
-        <v>9.224987238461722</v>
+        <v>1.02340346274751</v>
       </c>
       <c r="G19">
-        <v>0.0007831478094803291</v>
+        <v>0.7661063858570429</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02698454464890432</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1827477719177324</v>
+        <v>0.4944859713228738</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3019051331107256</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08400831905703221</v>
       </c>
       <c r="M19">
-        <v>0.7630620109570572</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.8650727235780948</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.863229855207237</v>
+        <v>3.645796375022542</v>
       </c>
       <c r="C20">
-        <v>0.9126416614514028</v>
+        <v>1.098467475689574</v>
       </c>
       <c r="D20">
-        <v>0.1358000118401748</v>
+        <v>0.1169803526528597</v>
       </c>
       <c r="E20">
-        <v>0.01488354455548091</v>
+        <v>0.1105828750473847</v>
       </c>
       <c r="F20">
-        <v>9.567186522397805</v>
+        <v>1.326178509635682</v>
       </c>
       <c r="G20">
-        <v>0.0007784358185503939</v>
+        <v>1.009833719517957</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002590559248801139</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1881404280737868</v>
+        <v>0.6139032814140535</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4008579430659864</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1354151237978485</v>
       </c>
       <c r="M20">
-        <v>0.7965014818070131</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.028147603072519</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.441238554448773</v>
+        <v>4.106022722480077</v>
       </c>
       <c r="C21">
-        <v>1.056011777756851</v>
+        <v>1.24124253109386</v>
       </c>
       <c r="D21">
-        <v>0.156733408827705</v>
+        <v>0.1315210695925444</v>
       </c>
       <c r="E21">
-        <v>0.01475939997531217</v>
+        <v>0.1253138624843722</v>
       </c>
       <c r="F21">
-        <v>10.75588788615823</v>
+        <v>1.460853434507527</v>
       </c>
       <c r="G21">
-        <v>0.0007625716655882478</v>
+        <v>1.124889068916019</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.005629936000686397</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2069295336941224</v>
+        <v>0.6601202269333157</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4230901835324232</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1536362249168235</v>
       </c>
       <c r="M21">
-        <v>0.9131093452089587</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.169244478706645</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.836392212585167</v>
+        <v>4.411797781361827</v>
       </c>
       <c r="C22">
-        <v>1.154528833012023</v>
+        <v>1.333804358648251</v>
       </c>
       <c r="D22">
-        <v>0.171061944848816</v>
+        <v>0.1399172494045473</v>
       </c>
       <c r="E22">
-        <v>0.01470806328514573</v>
+        <v>0.1327852861116519</v>
       </c>
       <c r="F22">
-        <v>11.56731632543466</v>
+        <v>1.537404148724789</v>
       </c>
       <c r="G22">
-        <v>0.0007521339279928445</v>
+        <v>1.191487133501255</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008201962214378578</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2197993826207565</v>
+        <v>0.6860592323276364</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4339103940708</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1623349199096964</v>
       </c>
       <c r="M22">
-        <v>0.9930798628701183</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.255744731387111</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.623702430905212</v>
+        <v>4.248429011630037</v>
       </c>
       <c r="C23">
-        <v>1.10145088392639</v>
+        <v>1.28434610714902</v>
       </c>
       <c r="D23">
-        <v>0.1633475153691393</v>
+        <v>0.1354278855545274</v>
       </c>
       <c r="E23">
-        <v>0.01473262193686242</v>
+        <v>0.1287887581179596</v>
       </c>
       <c r="F23">
-        <v>11.13069122595778</v>
+        <v>1.496308649831491</v>
       </c>
       <c r="G23">
-        <v>0.0007577143250657481</v>
+        <v>1.155697400205099</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.006772367188793371</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.212870117552221</v>
+        <v>0.6720880772152213</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.428006759408305</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1576815160543532</v>
       </c>
       <c r="M23">
-        <v>0.9500122231060217</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.209527527882187</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.854035612618532</v>
+        <v>3.633142356897451</v>
       </c>
       <c r="C24">
-        <v>0.9103680103659713</v>
+        <v>1.098166437133727</v>
       </c>
       <c r="D24">
-        <v>0.1354671929239117</v>
+        <v>0.1185888442226641</v>
       </c>
       <c r="E24">
-        <v>0.01488605315232405</v>
+        <v>0.1138301108832991</v>
       </c>
       <c r="F24">
-        <v>9.548260700192031</v>
+        <v>1.345672574583929</v>
       </c>
       <c r="G24">
-        <v>0.0007786945963502003</v>
+        <v>1.025275279651638</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002552982462135978</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1878419748711835</v>
+        <v>0.6218460993725472</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4083581378612351</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1402708035952571</v>
       </c>
       <c r="M24">
-        <v>0.7946504874568916</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.035507642411062</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081628970938766</v>
+        <v>2.974993920555448</v>
       </c>
       <c r="C25">
-        <v>0.7201055238298011</v>
+        <v>0.8991712823494993</v>
       </c>
       <c r="D25">
-        <v>0.1075068894535178</v>
+        <v>0.1006822583889502</v>
       </c>
       <c r="E25">
-        <v>0.01516967749207776</v>
+        <v>0.09796862376462201</v>
       </c>
       <c r="F25">
-        <v>7.956236792057979</v>
+        <v>1.192431086131137</v>
       </c>
       <c r="G25">
-        <v>0.0008013017517164143</v>
+        <v>0.8939990694339883</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.000230631128805836</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.162830165776171</v>
+        <v>0.5726487385327488</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3922568128969246</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1218101546609098</v>
       </c>
       <c r="M25">
-        <v>0.6396477346312253</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0.8494625451056237</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_52/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.493409828010272</v>
+        <v>2.48556536109362</v>
       </c>
       <c r="C2">
-        <v>0.7536557100540335</v>
+        <v>0.8320085960743029</v>
       </c>
       <c r="D2">
-        <v>0.08763283434267777</v>
+        <v>0.09743129284408525</v>
       </c>
       <c r="E2">
-        <v>0.0864271816562372</v>
+        <v>0.08790874111593538</v>
       </c>
       <c r="F2">
-        <v>1.086199116189633</v>
+        <v>0.9793720279844109</v>
       </c>
       <c r="G2">
-        <v>0.8040002996999647</v>
+        <v>0.676108164966152</v>
       </c>
       <c r="H2">
-        <v>0.0001410725946924263</v>
+        <v>0.0001294123756050425</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5400667530473982</v>
+        <v>0.5239571246427914</v>
       </c>
       <c r="K2">
-        <v>0.3841421371044333</v>
+        <v>0.3173860136457094</v>
       </c>
       <c r="L2">
-        <v>0.1083656391924883</v>
+        <v>0.1716780536329559</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0786417166612452</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1051397307793032</v>
       </c>
       <c r="O2">
-        <v>0.7134094879044639</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.7341809479733072</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.168133033197421</v>
+        <v>2.165247557005785</v>
       </c>
       <c r="C3">
-        <v>0.6554115834476022</v>
+        <v>0.7183655262848845</v>
       </c>
       <c r="D3">
-        <v>0.07883532911176871</v>
+        <v>0.08762135895860723</v>
       </c>
       <c r="E3">
-        <v>0.07864689718186213</v>
+        <v>0.08055081749998472</v>
       </c>
       <c r="F3">
-        <v>1.017709314568151</v>
+        <v>0.9260472442868064</v>
       </c>
       <c r="G3">
-        <v>0.7465150715435698</v>
+        <v>0.6352586434475</v>
       </c>
       <c r="H3">
-        <v>0.0009562801693117073</v>
+        <v>0.0008294316161614468</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5199610468061451</v>
+        <v>0.5067283040615393</v>
       </c>
       <c r="K3">
-        <v>0.3806861979702951</v>
+        <v>0.3204738474599473</v>
       </c>
       <c r="L3">
-        <v>0.0992890240811839</v>
+        <v>0.177222985807628</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.07582285866895333</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.09736370165807173</v>
       </c>
       <c r="O3">
-        <v>0.6215625687783088</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.6388433432401683</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.968722972156229</v>
+        <v>1.968532176841705</v>
       </c>
       <c r="C4">
-        <v>0.5951985187501805</v>
+        <v>0.6488990143951412</v>
       </c>
       <c r="D4">
-        <v>0.07344509655236209</v>
+        <v>0.08162483554976774</v>
       </c>
       <c r="E4">
-        <v>0.07387685393112342</v>
+        <v>0.07603311184973016</v>
       </c>
       <c r="F4">
-        <v>0.9771987978193977</v>
+        <v>0.8944085943729903</v>
       </c>
       <c r="G4">
-        <v>0.7127525999690505</v>
+        <v>0.6114848408299736</v>
       </c>
       <c r="H4">
-        <v>0.001847509003362724</v>
+        <v>0.001587494572620529</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5085003096955774</v>
+        <v>0.4965108927698765</v>
       </c>
       <c r="K4">
-        <v>0.3794835878690428</v>
+        <v>0.3230041407730369</v>
       </c>
       <c r="L4">
-        <v>0.09371565134623339</v>
+        <v>0.1807909043640095</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.07494379950569474</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.09256890499796455</v>
       </c>
       <c r="O4">
-        <v>0.5652781316137876</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.5804088673969545</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.887509622392031</v>
+        <v>1.888337932252512</v>
       </c>
       <c r="C5">
-        <v>0.5706787411182006</v>
+        <v>0.6206590888093615</v>
       </c>
       <c r="D5">
-        <v>0.07124988437588797</v>
+        <v>0.07918678754891317</v>
       </c>
       <c r="E5">
-        <v>0.0719329594270377</v>
+        <v>0.07419077612971314</v>
       </c>
       <c r="F5">
-        <v>0.9610524656959853</v>
+        <v>0.8817732263381046</v>
       </c>
       <c r="G5">
-        <v>0.6993524419328452</v>
+        <v>0.6021012331879518</v>
       </c>
       <c r="H5">
-        <v>0.002303103966670772</v>
+        <v>0.001974234664517405</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5040397681352715</v>
+        <v>0.4924321061093195</v>
       </c>
       <c r="K5">
-        <v>0.3792122602878614</v>
+        <v>0.324186206303775</v>
       </c>
       <c r="L5">
-        <v>0.0914419535640647</v>
+        <v>0.1822855179860348</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0747928361231871</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09060814836384523</v>
       </c>
       <c r="O5">
-        <v>0.5423605863184804</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.5566149628481938</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.874026250400021</v>
+        <v>1.875019264704463</v>
       </c>
       <c r="C6">
-        <v>0.5666080322701816</v>
+        <v>0.615973715266847</v>
       </c>
       <c r="D6">
-        <v>0.07088540976758395</v>
+        <v>0.07878225633251645</v>
       </c>
       <c r="E6">
-        <v>0.07161012139004441</v>
+        <v>0.07388473875097823</v>
       </c>
       <c r="F6">
-        <v>0.9583925150440393</v>
+        <v>0.8796901347381407</v>
       </c>
       <c r="G6">
-        <v>0.6971482254571271</v>
+        <v>0.600560783760244</v>
       </c>
       <c r="H6">
-        <v>0.002384171489087983</v>
+        <v>0.002043018837863619</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5033114155980485</v>
+        <v>0.4917597858667193</v>
       </c>
       <c r="K6">
-        <v>0.3791800665680789</v>
+        <v>0.3243913613433058</v>
       </c>
       <c r="L6">
-        <v>0.09106418788874393</v>
+        <v>0.1825361418008882</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.07478009114167605</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09028210391150182</v>
       </c>
       <c r="O6">
-        <v>0.538556034823344</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.5526649223046007</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.967627545351036</v>
+        <v>1.967411629586906</v>
       </c>
       <c r="C7">
-        <v>0.5948677780972389</v>
+        <v>0.6475393259001976</v>
       </c>
       <c r="D7">
-        <v>0.07341548763579198</v>
+        <v>0.08183156496674826</v>
       </c>
       <c r="E7">
-        <v>0.07385064051110746</v>
+        <v>0.07605167137604951</v>
       </c>
       <c r="F7">
-        <v>0.9769796100682555</v>
+        <v>0.8918948435483784</v>
       </c>
       <c r="G7">
-        <v>0.7125704650065785</v>
+        <v>0.6142460356272608</v>
       </c>
       <c r="H7">
-        <v>0.001853286642726881</v>
+        <v>0.001596618428371777</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5084393199002903</v>
+        <v>0.4897049619791147</v>
       </c>
       <c r="K7">
-        <v>0.3794790589310608</v>
+        <v>0.3220709754402016</v>
       </c>
       <c r="L7">
-        <v>0.09368500072068997</v>
+        <v>0.1803648576676302</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.07467052006071029</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.0924826113122279</v>
       </c>
       <c r="O7">
-        <v>0.5649689926405799</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.5800452025619833</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.38117076140702</v>
+        <v>2.374971898092838</v>
       </c>
       <c r="C8">
-        <v>0.7197522501904245</v>
+        <v>0.789446426800481</v>
       </c>
       <c r="D8">
-        <v>0.08459611692693159</v>
+        <v>0.09485301878159191</v>
       </c>
       <c r="E8">
-        <v>0.08374192615491438</v>
+        <v>0.08551938454688823</v>
       </c>
       <c r="F8">
-        <v>1.062247695812587</v>
+        <v>0.9530057060658805</v>
       </c>
       <c r="G8">
-        <v>0.7838441580912558</v>
+        <v>0.6714089311818441</v>
       </c>
       <c r="H8">
-        <v>0.0003374715048272137</v>
+        <v>0.0003054385318337349</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5329430139695717</v>
+        <v>0.4958323448861961</v>
       </c>
       <c r="K8">
-        <v>0.3827520368728479</v>
+        <v>0.315235229678354</v>
       </c>
       <c r="L8">
-        <v>0.1052345808933275</v>
+        <v>0.1722152219105766</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.07650230911391986</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1022659588993804</v>
       </c>
       <c r="O8">
-        <v>0.681712336734229</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7011333290170541</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.196114602894681</v>
+        <v>3.175096196690163</v>
       </c>
       <c r="C9">
-        <v>0.966011339348114</v>
+        <v>1.074228114236917</v>
       </c>
       <c r="D9">
-        <v>0.1066877271187678</v>
+        <v>0.1197849235243353</v>
       </c>
       <c r="E9">
-        <v>0.1032840418673473</v>
+        <v>0.10399305884334</v>
       </c>
       <c r="F9">
-        <v>1.242939756267262</v>
+        <v>1.091032401854406</v>
       </c>
       <c r="G9">
-        <v>0.9370944262355323</v>
+        <v>0.7845009845072326</v>
       </c>
       <c r="H9">
-        <v>0.0007423152509251629</v>
+        <v>0.0005831861287115547</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5886135949640874</v>
+        <v>0.5350654227390379</v>
       </c>
       <c r="K9">
-        <v>0.3970588196430356</v>
+        <v>0.3107095137002176</v>
       </c>
       <c r="L9">
-        <v>0.1279976045612408</v>
+        <v>0.1591792974710344</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08815093535577034</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1215890817508125</v>
       </c>
       <c r="O9">
-        <v>0.9119559446625445</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.9399228149310588</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.806129519122408</v>
+        <v>3.77177109593282</v>
       </c>
       <c r="C10">
-        <v>1.145951712992144</v>
+        <v>1.274923816949411</v>
       </c>
       <c r="D10">
-        <v>0.1208007549520786</v>
+        <v>0.1370249404307629</v>
       </c>
       <c r="E10">
-        <v>0.1134600970257438</v>
+        <v>0.11348406634675</v>
       </c>
       <c r="F10">
-        <v>1.358368334396658</v>
+        <v>1.163801700103676</v>
       </c>
       <c r="G10">
-        <v>1.038002286587954</v>
+        <v>0.8764786532062772</v>
       </c>
       <c r="H10">
-        <v>0.003517545799343935</v>
+        <v>0.002845167415828964</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6240872532634967</v>
+        <v>0.5206734551951371</v>
       </c>
       <c r="K10">
-        <v>0.4033588519338878</v>
+        <v>0.2994776834027775</v>
       </c>
       <c r="L10">
-        <v>0.1384668599379921</v>
+        <v>0.1462403437852089</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.09674687049617603</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1294386890685146</v>
       </c>
       <c r="O10">
-        <v>1.07034027080131</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.103389956106113</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.143808701695434</v>
+        <v>4.106538661653644</v>
       </c>
       <c r="C11">
-        <v>1.205673419438483</v>
+        <v>1.312297042420937</v>
       </c>
       <c r="D11">
-        <v>0.107893684232522</v>
+        <v>0.1236730728036264</v>
       </c>
       <c r="E11">
-        <v>0.08565903518156226</v>
+        <v>0.0848351358093371</v>
       </c>
       <c r="F11">
-        <v>1.183297809846465</v>
+        <v>0.9901602701999792</v>
       </c>
       <c r="G11">
-        <v>0.9028947827508063</v>
+        <v>0.8023585136052702</v>
       </c>
       <c r="H11">
-        <v>0.02235674568899526</v>
+        <v>0.02152725461587224</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5492874289493841</v>
+        <v>0.3949181338126522</v>
       </c>
       <c r="K11">
-        <v>0.3267202175673134</v>
+        <v>0.2342029413251687</v>
       </c>
       <c r="L11">
-        <v>0.1001625946430806</v>
+        <v>0.1198209507607118</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07605942275407784</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09289144118107373</v>
       </c>
       <c r="O11">
-        <v>1.036904982511722</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.06566651759308</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.302443807240422</v>
+        <v>4.265995785681241</v>
       </c>
       <c r="C12">
-        <v>1.217577645489541</v>
+        <v>1.304326282463364</v>
       </c>
       <c r="D12">
-        <v>0.09514293810832442</v>
+        <v>0.108902202663181</v>
       </c>
       <c r="E12">
-        <v>0.06780537051431601</v>
+        <v>0.06614580061983055</v>
       </c>
       <c r="F12">
-        <v>1.020489636857448</v>
+        <v>0.8460878116658819</v>
       </c>
       <c r="G12">
-        <v>0.7748086360798538</v>
+        <v>0.7124295076071974</v>
       </c>
       <c r="H12">
-        <v>0.0607912476653496</v>
+        <v>0.05996314205057729</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.4819440344549832</v>
+        <v>0.3237478618526097</v>
       </c>
       <c r="K12">
-        <v>0.2667584156658975</v>
+        <v>0.1901617186716535</v>
       </c>
       <c r="L12">
-        <v>0.08367079248273779</v>
+        <v>0.1038751108442408</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.05954747580330988</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07841679636455456</v>
       </c>
       <c r="O12">
-        <v>0.9756363684672991</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.000061497149254</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.33059743926998</v>
+        <v>4.298123938415756</v>
       </c>
       <c r="C13">
-        <v>1.193217950577662</v>
+        <v>1.263688378505265</v>
       </c>
       <c r="D13">
-        <v>0.0818294617044657</v>
+        <v>0.09208537074208323</v>
       </c>
       <c r="E13">
-        <v>0.0565520015461054</v>
+        <v>0.0541976883516444</v>
       </c>
       <c r="F13">
-        <v>0.8578736218677534</v>
+        <v>0.7184040464153085</v>
       </c>
       <c r="G13">
-        <v>0.6446057060085764</v>
+        <v>0.6001239871597761</v>
       </c>
       <c r="H13">
-        <v>0.1158862704921688</v>
+        <v>0.11519013255608</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4162931720094036</v>
+        <v>0.2903446229873126</v>
       </c>
       <c r="K13">
-        <v>0.2157281296273439</v>
+        <v>0.1591944942200669</v>
       </c>
       <c r="L13">
-        <v>0.08277802997009331</v>
+        <v>0.09389131024156505</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04577766678175621</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07963181050789103</v>
       </c>
       <c r="O13">
-        <v>0.8899963269280065</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9099272889268377</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.291196713562272</v>
+        <v>4.262849710853743</v>
       </c>
       <c r="C14">
-        <v>1.159881514207768</v>
+        <v>1.220486862328983</v>
       </c>
       <c r="D14">
-        <v>0.07249951721848191</v>
+        <v>0.07994912734866944</v>
       </c>
       <c r="E14">
-        <v>0.05272447254172941</v>
+        <v>0.05008974534772404</v>
       </c>
       <c r="F14">
-        <v>0.7465070582749576</v>
+        <v>0.6364306333460732</v>
       </c>
       <c r="G14">
-        <v>0.5543882503101401</v>
+        <v>0.5148400839943577</v>
       </c>
       <c r="H14">
-        <v>0.1646532810859327</v>
+        <v>0.1640907317560192</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3719661499647344</v>
+        <v>0.2800968696447157</v>
       </c>
       <c r="K14">
-        <v>0.1850824872010399</v>
+        <v>0.1430831594933135</v>
       </c>
       <c r="L14">
-        <v>0.09148014330306609</v>
+        <v>0.08917663161353673</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.03755934991437648</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08964465182203796</v>
       </c>
       <c r="O14">
-        <v>0.8198020128930281</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8365352368637602</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.253287897439122</v>
+        <v>4.226569089184068</v>
       </c>
       <c r="C15">
-        <v>1.144128444211958</v>
+        <v>1.202928939448441</v>
       </c>
       <c r="D15">
-        <v>0.06998638663051082</v>
+        <v>0.07657451549109595</v>
       </c>
       <c r="E15">
-        <v>0.05219081953922733</v>
+        <v>0.04957543197385306</v>
       </c>
       <c r="F15">
-        <v>0.7184167938487604</v>
+        <v>0.617968472989979</v>
       </c>
       <c r="G15">
-        <v>0.5311709938144844</v>
+        <v>0.4902157494845056</v>
       </c>
       <c r="H15">
-        <v>0.1769159808514473</v>
+        <v>0.1764109755250729</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3611675753065242</v>
+        <v>0.2827034591654609</v>
       </c>
       <c r="K15">
-        <v>0.1787426497588456</v>
+        <v>0.1408041202733887</v>
       </c>
       <c r="L15">
-        <v>0.09452195086488402</v>
+        <v>0.08873403918608425</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03585874160680902</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09300627806739925</v>
       </c>
       <c r="O15">
-        <v>0.7976429952966697</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.81353419696282</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.981433662884228</v>
+        <v>3.960415105753043</v>
       </c>
       <c r="C16">
-        <v>1.071843901250361</v>
+        <v>1.13484451091</v>
       </c>
       <c r="D16">
-        <v>0.06698195760378667</v>
+        <v>0.07181777850836113</v>
       </c>
       <c r="E16">
-        <v>0.05044691204746621</v>
+        <v>0.04847288662145477</v>
       </c>
       <c r="F16">
-        <v>0.7039565426414356</v>
+        <v>0.6269528270497275</v>
       </c>
       <c r="G16">
-        <v>0.5153124166703265</v>
+        <v>0.4539029347946979</v>
       </c>
       <c r="H16">
-        <v>0.1630812172972753</v>
+        <v>0.1628115262700618</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3594856879315387</v>
+        <v>0.3290559146564362</v>
       </c>
       <c r="K16">
-        <v>0.1858222888443528</v>
+        <v>0.154175427348834</v>
       </c>
       <c r="L16">
-        <v>0.09023621371756718</v>
+        <v>0.09499028562321143</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.03755051810967558</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08913970408106664</v>
       </c>
       <c r="O16">
-        <v>0.7495711704224988</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7647298675202876</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.794718640402039</v>
+        <v>3.77570961468831</v>
       </c>
       <c r="C17">
-        <v>1.034204350486618</v>
+        <v>1.103992693737041</v>
       </c>
       <c r="D17">
-        <v>0.06946565516551573</v>
+        <v>0.07441908592568325</v>
       </c>
       <c r="E17">
-        <v>0.05040551688078532</v>
+        <v>0.0489042923260069</v>
       </c>
       <c r="F17">
-        <v>0.7509191385930265</v>
+        <v>0.6757754742568096</v>
       </c>
       <c r="G17">
-        <v>0.5503439432896187</v>
+        <v>0.47290421924626</v>
       </c>
       <c r="H17">
-        <v>0.1248112735073477</v>
+        <v>0.124635259295971</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3814742160668914</v>
+        <v>0.3685550815821017</v>
       </c>
       <c r="K17">
-        <v>0.2072004057103776</v>
+        <v>0.1731803304016708</v>
       </c>
       <c r="L17">
-        <v>0.08077349392728728</v>
+        <v>0.1028646456874416</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04288362280146885</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07949467621555684</v>
       </c>
       <c r="O17">
-        <v>0.7494650672019461</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7656672577405104</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.660223855072729</v>
+        <v>3.640600993624616</v>
       </c>
       <c r="C18">
-        <v>1.021777547439967</v>
+        <v>1.103644093172363</v>
       </c>
       <c r="D18">
-        <v>0.07755329065568617</v>
+        <v>0.08392151964277161</v>
       </c>
       <c r="E18">
-        <v>0.05561097102071511</v>
+        <v>0.05452949880635405</v>
       </c>
       <c r="F18">
-        <v>0.8611665219987685</v>
+        <v>0.7725608490409854</v>
       </c>
       <c r="G18">
-        <v>0.6370239472119152</v>
+        <v>0.5385057249667398</v>
       </c>
       <c r="H18">
-        <v>0.07190369452185053</v>
+        <v>0.07174683208616983</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4281077210470983</v>
+        <v>0.416098872932821</v>
       </c>
       <c r="K18">
-        <v>0.2463290371530285</v>
+        <v>0.2025144172635684</v>
       </c>
       <c r="L18">
-        <v>0.07445013106250364</v>
+        <v>0.1143445836124801</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.053001607095716</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07229981174247779</v>
       </c>
       <c r="O18">
-        <v>0.7911720232597901</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8102717891861033</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.578382811006634</v>
+        <v>3.556166073023064</v>
       </c>
       <c r="C19">
-        <v>1.030461806219932</v>
+        <v>1.128750474847891</v>
       </c>
       <c r="D19">
-        <v>0.09056409060544013</v>
+        <v>0.0993881289491938</v>
       </c>
       <c r="E19">
-        <v>0.07037396240417415</v>
+        <v>0.06973408238083145</v>
       </c>
       <c r="F19">
-        <v>1.02340346274751</v>
+        <v>0.9093547986279731</v>
       </c>
       <c r="G19">
-        <v>0.7661063858570429</v>
+        <v>0.6400631236663372</v>
       </c>
       <c r="H19">
-        <v>0.02698454464890432</v>
+        <v>0.02678258338763584</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4944859713228738</v>
+        <v>0.472476202004799</v>
       </c>
       <c r="K19">
-        <v>0.3019051331107256</v>
+        <v>0.241743095479265</v>
       </c>
       <c r="L19">
-        <v>0.08400831905703221</v>
+        <v>0.1291647846741917</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06772022056104987</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08016089321965048</v>
       </c>
       <c r="O19">
-        <v>0.8650727235780948</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.8885543163274932</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.645796375022542</v>
+        <v>3.615365406580111</v>
       </c>
       <c r="C20">
-        <v>1.098467475689574</v>
+        <v>1.225573275016302</v>
       </c>
       <c r="D20">
-        <v>0.1169803526528597</v>
+        <v>0.1314564286158557</v>
       </c>
       <c r="E20">
-        <v>0.1105828750473847</v>
+        <v>0.1106248331198891</v>
       </c>
       <c r="F20">
-        <v>1.326178509635682</v>
+        <v>1.151431717272374</v>
       </c>
       <c r="G20">
-        <v>1.009833719517957</v>
+        <v>0.8402516965991964</v>
       </c>
       <c r="H20">
-        <v>0.002590559248801139</v>
+        <v>0.002100416621908963</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6139032814140535</v>
+        <v>0.5466013127613394</v>
       </c>
       <c r="K20">
-        <v>0.4008579430659864</v>
+        <v>0.3049493631177604</v>
       </c>
       <c r="L20">
-        <v>0.1354151237978485</v>
+        <v>0.1505371342306603</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09531888574626635</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.127300567009403</v>
       </c>
       <c r="O20">
-        <v>1.028147603072519</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.060035903827661</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.106022722480077</v>
+        <v>4.062496992250374</v>
       </c>
       <c r="C21">
-        <v>1.24124253109386</v>
+        <v>1.368374850121768</v>
       </c>
       <c r="D21">
-        <v>0.1315210695925444</v>
+        <v>0.1541631040754226</v>
       </c>
       <c r="E21">
-        <v>0.1253138624843722</v>
+        <v>0.1258864526245667</v>
       </c>
       <c r="F21">
-        <v>1.460853434507527</v>
+        <v>1.200945414003826</v>
       </c>
       <c r="G21">
-        <v>1.124889068916019</v>
+        <v>0.999653592429226</v>
       </c>
       <c r="H21">
-        <v>0.005629936000686397</v>
+        <v>0.004441903956846072</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6601202269333157</v>
+        <v>0.4373997706311172</v>
       </c>
       <c r="K21">
-        <v>0.4230901835324232</v>
+        <v>0.2917199293256481</v>
       </c>
       <c r="L21">
-        <v>0.1536362249168235</v>
+        <v>0.1390633029901238</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.100853221328304</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1417405479362515</v>
       </c>
       <c r="O21">
-        <v>1.169244478706645</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.205032356275552</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.411797781361827</v>
+        <v>4.359159918075534</v>
       </c>
       <c r="C22">
-        <v>1.333804358648251</v>
+        <v>1.457827599984796</v>
       </c>
       <c r="D22">
-        <v>0.1399172494045473</v>
+        <v>0.1683181946142156</v>
       </c>
       <c r="E22">
-        <v>0.1327852861116519</v>
+        <v>0.1337759322541281</v>
       </c>
       <c r="F22">
-        <v>1.537404148724789</v>
+        <v>1.219960644020759</v>
       </c>
       <c r="G22">
-        <v>1.191487133501255</v>
+        <v>1.104967299580323</v>
       </c>
       <c r="H22">
-        <v>0.008201962214378578</v>
+        <v>0.006423331387934883</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6860592323276364</v>
+        <v>0.365511213626263</v>
       </c>
       <c r="K22">
-        <v>0.4339103940708</v>
+        <v>0.2795750098422438</v>
       </c>
       <c r="L22">
-        <v>0.1623349199096964</v>
+        <v>0.1305633804635917</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1033224392891476</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.148050804818773</v>
       </c>
       <c r="O22">
-        <v>1.255744731387111</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.293521991190289</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.248429011630037</v>
+        <v>4.200857509029333</v>
       </c>
       <c r="C23">
-        <v>1.28434610714902</v>
+        <v>1.412849320395821</v>
       </c>
       <c r="D23">
-        <v>0.1354278855545274</v>
+        <v>0.1600060254873341</v>
       </c>
       <c r="E23">
-        <v>0.1287887581179596</v>
+        <v>0.1294131201037345</v>
       </c>
       <c r="F23">
-        <v>1.496308649831491</v>
+        <v>1.215738167250279</v>
       </c>
       <c r="G23">
-        <v>1.155697400205099</v>
+        <v>1.039740512219026</v>
       </c>
       <c r="H23">
-        <v>0.006772367188793371</v>
+        <v>0.005336284836675365</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6720880772152213</v>
+        <v>0.4164076434381627</v>
       </c>
       <c r="K23">
-        <v>0.428006759408305</v>
+        <v>0.2881839874639063</v>
       </c>
       <c r="L23">
-        <v>0.1576815160543532</v>
+        <v>0.1357881931020515</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1028802761337069</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1448221671233298</v>
       </c>
       <c r="O23">
-        <v>1.209527527882187</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.246393559633503</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.633142356897451</v>
+        <v>3.60251739729415</v>
       </c>
       <c r="C24">
-        <v>1.098166437133727</v>
+        <v>1.227001789595647</v>
       </c>
       <c r="D24">
-        <v>0.1185888442226641</v>
+        <v>0.1333552708919115</v>
       </c>
       <c r="E24">
-        <v>0.1138301108832991</v>
+        <v>0.1139413618275533</v>
       </c>
       <c r="F24">
-        <v>1.345672574583929</v>
+        <v>1.168059098730126</v>
       </c>
       <c r="G24">
-        <v>1.025275279651638</v>
+        <v>0.8519158754799747</v>
       </c>
       <c r="H24">
-        <v>0.002552982462135978</v>
+        <v>0.002053616296135097</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6218460993725472</v>
+        <v>0.5541053449282174</v>
       </c>
       <c r="K24">
-        <v>0.4083581378612351</v>
+        <v>0.3103745146997312</v>
       </c>
       <c r="L24">
-        <v>0.1402708035952571</v>
+        <v>0.1526207428201829</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.09729629136112194</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.131892740131903</v>
       </c>
       <c r="O24">
-        <v>1.035507642411062</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.067883047342981</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.974993920555448</v>
+        <v>2.95846397537133</v>
       </c>
       <c r="C25">
-        <v>0.8991712823494993</v>
+        <v>0.9982450664306839</v>
       </c>
       <c r="D25">
-        <v>0.1006822583889502</v>
+        <v>0.1126474966515545</v>
       </c>
       <c r="E25">
-        <v>0.09796862376462201</v>
+        <v>0.09891288725239633</v>
       </c>
       <c r="F25">
-        <v>1.192431086131137</v>
+        <v>1.055823904910653</v>
       </c>
       <c r="G25">
-        <v>0.8939990694339883</v>
+        <v>0.7483067021208569</v>
       </c>
       <c r="H25">
-        <v>0.000230631128805836</v>
+        <v>0.0001748682008568814</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.5726487385327488</v>
+        <v>0.53344167266998</v>
       </c>
       <c r="K25">
-        <v>0.3922568128969246</v>
+        <v>0.3125815939890799</v>
       </c>
       <c r="L25">
-        <v>0.1218101546609098</v>
+        <v>0.1630715817756574</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08465820321787021</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1164407802948233</v>
       </c>
       <c r="O25">
-        <v>0.8494625451056237</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0.8752101394743761</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
